--- a/rolllist.xlsx
+++ b/rolllist.xlsx
@@ -551,6 +551,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,17 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -860,7 +860,7 @@
   <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5"/>
@@ -872,37 +872,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -913,39 +913,39 @@
       <c r="AK1" s="5"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="19"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
@@ -954,37 +954,37 @@
       <c r="AK2" s="5"/>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -1000,7 +1000,7 @@
       <c r="C4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>43661</v>
       </c>
       <c r="E4" s="5"/>
@@ -3944,10 +3944,10 @@
     <row r="67" spans="1:37">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E67" s="5"/>
@@ -3987,10 +3987,10 @@
     <row r="68" spans="1:37">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E68" s="5"/>
@@ -4028,54 +4028,54 @@
       <c r="AK68" s="5"/>
     </row>
     <row r="69" spans="1:37">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="16"/>
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="16"/>
-      <c r="AF69" s="16"/>
-      <c r="AG69" s="16"/>
-      <c r="AH69" s="16"/>
-      <c r="AI69" s="16"/>
-      <c r="AJ69" s="16"/>
-      <c r="AK69" s="16"/>
+      <c r="D69" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+      <c r="AH69" s="11"/>
+      <c r="AI69" s="11"/>
+      <c r="AJ69" s="11"/>
+      <c r="AK69" s="11"/>
     </row>
     <row r="70" spans="1:37" s="5" customFormat="1">
       <c r="B70" s="6"/>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="10" t="s">
         <v>124</v>
       </c>
     </row>

--- a/rolllist.xlsx
+++ b/rolllist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
   <si>
     <t>Gaya College of Engineering, Gaya</t>
   </si>
@@ -408,13 +408,13 @@
     <t>18/CSE/81LE</t>
   </si>
   <si>
-    <t>18/CSE/82LE</t>
-  </si>
-  <si>
     <t>18/CSE/83LE</t>
   </si>
   <si>
     <t>18/CSE/84LE</t>
+  </si>
+  <si>
+    <t>18/CSE/79LE</t>
   </si>
 </sst>
 </file>
@@ -849,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="14.5"/>
@@ -869,6 +869,8 @@
     <col min="2" max="2" width="23.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -1003,8 +1005,12 @@
       <c r="D4" s="8">
         <v>43661</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="8">
+        <v>43662</v>
+      </c>
+      <c r="F4" s="8">
+        <v>43664</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -1095,8 +1101,12 @@
       <c r="D6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -1142,8 +1152,12 @@
       <c r="D7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1189,8 +1203,12 @@
       <c r="D8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1236,8 +1254,12 @@
       <c r="D9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1283,8 +1305,12 @@
       <c r="D10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1330,8 +1356,12 @@
       <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1377,8 +1407,12 @@
       <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1424,8 +1458,12 @@
       <c r="D13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1471,8 +1509,12 @@
       <c r="D14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1518,8 +1560,12 @@
       <c r="D15" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1565,8 +1611,12 @@
       <c r="D16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1612,8 +1662,12 @@
       <c r="D17" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1659,8 +1713,12 @@
       <c r="D18" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1706,8 +1764,12 @@
       <c r="D19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1753,8 +1815,12 @@
       <c r="D20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1800,8 +1866,12 @@
       <c r="D21" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1847,8 +1917,12 @@
       <c r="D22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1894,8 +1968,12 @@
       <c r="D23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1941,8 +2019,12 @@
       <c r="D24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1988,8 +2070,12 @@
       <c r="D25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -2035,8 +2121,12 @@
       <c r="D26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -2082,8 +2172,12 @@
       <c r="D27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2129,8 +2223,12 @@
       <c r="D28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2176,8 +2274,12 @@
       <c r="D29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2223,8 +2325,12 @@
       <c r="D30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2270,8 +2376,12 @@
       <c r="D31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2317,8 +2427,12 @@
       <c r="D32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2364,8 +2478,12 @@
       <c r="D33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2411,8 +2529,12 @@
       <c r="D34" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2458,8 +2580,12 @@
       <c r="D35" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2505,8 +2631,12 @@
       <c r="D36" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2552,8 +2682,12 @@
       <c r="D37" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2599,8 +2733,12 @@
       <c r="D38" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2646,8 +2784,12 @@
       <c r="D39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2693,8 +2835,12 @@
       <c r="D40" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2740,8 +2886,12 @@
       <c r="D41" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2787,8 +2937,12 @@
       <c r="D42" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2830,8 +2984,12 @@
       <c r="D43" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -2877,8 +3035,12 @@
       <c r="D44" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2924,8 +3086,12 @@
       <c r="D45" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2971,8 +3137,12 @@
       <c r="D46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -3018,8 +3188,12 @@
       <c r="D47" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -3065,8 +3239,12 @@
       <c r="D48" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3112,8 +3290,12 @@
       <c r="D49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3159,8 +3341,12 @@
       <c r="D50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3206,8 +3392,12 @@
       <c r="D51" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -3253,8 +3443,12 @@
       <c r="D52" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -3300,8 +3494,12 @@
       <c r="D53" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -3347,8 +3545,12 @@
       <c r="D54" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3394,8 +3596,12 @@
       <c r="D55" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -3441,8 +3647,12 @@
       <c r="D56" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -3488,8 +3698,12 @@
       <c r="D57" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3535,8 +3749,12 @@
       <c r="D58" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3582,8 +3800,12 @@
       <c r="D59" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -3629,8 +3851,12 @@
       <c r="D60" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -3676,8 +3902,12 @@
       <c r="D61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -3723,8 +3953,12 @@
       <c r="D62" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -3770,8 +4004,12 @@
       <c r="D63" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -3817,8 +4055,12 @@
       <c r="D64" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -3864,8 +4106,12 @@
       <c r="D65" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -3899,16 +4145,18 @@
       <c r="AK65" s="5"/>
     </row>
     <row r="66" spans="1:37">
-      <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -3944,14 +4192,18 @@
     <row r="67" spans="1:37">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="C67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -3988,13 +4240,17 @@
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -4031,13 +4287,17 @@
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -4073,9 +4333,15 @@
     <row r="70" spans="1:37" s="5" customFormat="1">
       <c r="B70" s="6"/>
       <c r="C70" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>124</v>
       </c>
     </row>
